--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/template-repo-data-analysis/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432AC6B9-68D3-9C4F-9563-3AD7158C40AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBDD7F1-1394-1F46-BA54-1ACB62516389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="33980" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,9 +155,6 @@
     <t>submitted</t>
   </si>
   <si>
-    <t>data-driven research; FAIR principles</t>
-  </si>
-  <si>
     <t>https://ror.org/04zbn7k04</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>https://github.com/AgrDataSci/template-repo-data-analysis</t>
   </si>
   <si>
-    <t>Template for project-oriented and FAIR data analysis workflows</t>
-  </si>
-  <si>
     <t>cropontologycop</t>
   </si>
   <si>
@@ -195,6 +189,12 @@
   </si>
   <si>
     <t>This is a generic template to allow scientists in using a well structured data workflow following the project-oriented approach and findable accessible interoperable and reusable (FAIR) principles for data and code publication in science. The project contains a example of data from the CIMMYT market intelligence research (Donovan et al 2025, https://doi.org/10.1017/S001447972500002X) with data description and an example of R script for analysis and documentation. Feel free to delete the example files once the project is adapted for your needs.</t>
+  </si>
+  <si>
+    <t>A FAIR and project-oriented template for open science data workflows</t>
+  </si>
+  <si>
+    <t>data-driven research; FAIR principles; data management; open science</t>
   </si>
 </sst>
 </file>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -610,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -642,7 +642,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -674,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -682,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -745,7 +745,7 @@
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -804,27 +804,27 @@
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -858,10 +858,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/template-repo-data-analysis/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBDD7F1-1394-1F46-BA54-1ACB62516389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81D3684-821A-2744-B3EA-49BF89841C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="33980" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>key</t>
   </si>
@@ -62,9 +62,6 @@
     <t>subjects</t>
   </si>
   <si>
-    <t>v1.0</t>
-  </si>
-  <si>
     <t>2025-04-14</t>
   </si>
   <si>
@@ -195,6 +192,12 @@
   </si>
   <si>
     <t>data-driven research; FAIR principles; data management; open science</t>
+  </si>
+  <si>
+    <t>v1.1</t>
+  </si>
+  <si>
+    <t>2025-04-24</t>
   </si>
 </sst>
 </file>
@@ -271,7 +274,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -281,6 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -588,12 +592,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -610,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -618,15 +623,15 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -634,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="126" customHeight="1" x14ac:dyDescent="0.2">
@@ -642,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -650,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -658,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -666,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -674,7 +679,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -682,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -710,59 +715,59 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -787,44 +792,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -850,18 +855,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -884,26 +889,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/template-repo-data-analysis/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81D3684-821A-2744-B3EA-49BF89841C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141E4A58-8C37-6F47-B1C5-5232D79AD228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="33980" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>datamanager</t>
   </si>
   <si>
-    <t>Alliance Bioversity International – CIAT</t>
-  </si>
-  <si>
     <t>funder_name</t>
   </si>
   <si>
@@ -194,10 +191,13 @@
     <t>data-driven research; FAIR principles; data management; open science</t>
   </si>
   <si>
-    <t>v1.1</t>
-  </si>
-  <si>
-    <t>2025-04-24</t>
+    <t>Bioversity International</t>
+  </si>
+  <si>
+    <t>v1.2</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -647,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -679,7 +679,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -687,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +700,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -747,10 +747,10 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -792,44 +792,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -855,18 +855,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -889,10 +889,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -900,7 +900,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -908,7 +908,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
